--- a/excel 4.xlsx
+++ b/excel 4.xlsx
@@ -365,14 +365,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -384,6 +376,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +602,7 @@
   <dimension ref="C4:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -614,46 +614,46 @@
   <sheetData>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1">
@@ -669,20 +669,20 @@
         <v>15899</v>
       </c>
       <c r="I7" s="2">
-        <f>+E7+F7+G7+H7</f>
-        <v>71844</v>
+        <f>(+E7+F7+G7+H7)*7</f>
+        <v>502908</v>
       </c>
       <c r="J7" s="2">
         <f>+I7+D11</f>
-        <v>137844</v>
-      </c>
-      <c r="K7" s="15">
+        <v>568908</v>
+      </c>
+      <c r="K7" s="11">
         <f>+I7+D12</f>
-        <v>182444</v>
+        <v>613508</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1">
@@ -698,49 +698,49 @@
         <v>16489</v>
       </c>
       <c r="I8" s="2">
-        <f>+E8+F8+G8+H8</f>
-        <v>82327</v>
+        <f t="shared" ref="I8:I9" si="0">(+E8+F8+G8+H8)*7</f>
+        <v>576289</v>
       </c>
       <c r="J8" s="2">
         <f>+I8+D11</f>
-        <v>148327</v>
-      </c>
-      <c r="K8" s="15">
+        <v>642289</v>
+      </c>
+      <c r="K8" s="11">
         <f>+J8+D12</f>
-        <v>258927</v>
+        <v>752889</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>29889</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>22499</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>9989</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <v>17852</v>
       </c>
-      <c r="I9" s="18">
-        <f>+E9+F9+G9+H9</f>
-        <v>80229</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>561603</v>
+      </c>
+      <c r="J9" s="14">
         <f>+I9+D11</f>
-        <v>146229</v>
-      </c>
-      <c r="K9" s="19">
+        <v>627603</v>
+      </c>
+      <c r="K9" s="15">
         <f>+J9+D12</f>
-        <v>256829</v>
+        <v>738203</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -748,7 +748,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
